--- a/25th June Batch/Class 04.02.2023 - ML.xlsx
+++ b/25th June Batch/Class 04.02.2023 - ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DS WorkFlow\Data Is Good Class Files\Batches\2023-Classes\25th June Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1482ED5-E40B-48E9-9445-6B36A51CDD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AC8A2F-217D-4FE8-916D-8E54D4FBC1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
@@ -130,6 +130,33 @@
   </si>
   <si>
     <t>p5</t>
+  </si>
+  <si>
+    <t>control page</t>
+  </si>
+  <si>
+    <t>test page</t>
+  </si>
+  <si>
+    <t>south india</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>Visitors</t>
+  </si>
+  <si>
+    <t>room booked</t>
+  </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>social media icons are top of website</t>
+  </si>
+  <si>
+    <t>social media icons are bottom of website</t>
   </si>
 </sst>
 </file>
@@ -176,10 +203,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,29 +487,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -499,7 +528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -516,7 +545,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -533,7 +562,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -550,7 +579,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -567,7 +596,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -584,16 +613,16 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -604,7 +633,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -618,7 +647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -632,7 +661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -646,7 +675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -659,13 +688,13 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -676,32 +705,32 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -721,8 +750,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>44958</v>
       </c>
       <c r="B24" t="s">
@@ -738,8 +767,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44959</v>
       </c>
       <c r="B25" t="s">
@@ -755,8 +784,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>44960</v>
       </c>
       <c r="B26" t="s">
@@ -772,8 +801,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44961</v>
       </c>
       <c r="B27" t="s">
@@ -787,6 +816,63 @@
       </c>
       <c r="E27" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34">
+        <v>50000</v>
+      </c>
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>150000</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>65000</v>
+      </c>
+      <c r="E35">
+        <v>60</v>
+      </c>
+      <c r="F35">
+        <v>275000</v>
+      </c>
+      <c r="G35" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
